--- a/colbert/output/Results_colbert_max_steps_bm25_extraQuestions.xlsx
+++ b/colbert/output/Results_colbert_max_steps_bm25_extraQuestions.xlsx
@@ -1002,11 +1002,11 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>109439</v>
+        <v>84797</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>berry  good sandwich spread</t>
+          <t>love is in the air  beef fondue   sauces</t>
         </is>
       </c>
     </row>
@@ -1027,11 +1027,11 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>84797</v>
+        <v>109439</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>berry  good sandwich spread</t>
         </is>
       </c>
     </row>
@@ -1052,11 +1052,11 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>62368</v>
+        <v>42522</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>the man s  taco dip</t>
         </is>
       </c>
     </row>
@@ -1077,11 +1077,11 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>42522</v>
+        <v>62368</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -1252,11 +1252,11 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>93249</v>
+        <v>76808</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>grilled  ranch bread</t>
+          <t>cream  of spinach soup</t>
         </is>
       </c>
     </row>
@@ -1277,11 +1277,11 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>76808</v>
+        <v>93249</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>grilled  ranch bread</t>
         </is>
       </c>
     </row>
@@ -1327,11 +1327,11 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>42522</v>
+        <v>112959</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>sour cream  avocado dip  vegan</t>
         </is>
       </c>
     </row>
@@ -1377,11 +1377,11 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>24701</v>
+        <v>76808</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>cream  of spinach soup</t>
         </is>
       </c>
     </row>
@@ -1402,11 +1402,11 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>76808</v>
+        <v>24701</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>cream  of spinach soup  vegan</t>
         </is>
       </c>
     </row>
@@ -1427,11 +1427,11 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>93249</v>
+        <v>74805</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>grilled  ranch bread</t>
+          <t>never weep  whipped cream</t>
         </is>
       </c>
     </row>
@@ -1452,11 +1452,11 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>74805</v>
+        <v>93249</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>never weep  whipped cream</t>
+          <t>grilled  ranch bread</t>
         </is>
       </c>
     </row>
@@ -2527,11 +2527,11 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>32271</v>
+        <v>62368</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>one pot  brownies</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -2552,11 +2552,11 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>62368</v>
+        <v>32271</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>one pot  brownies</t>
         </is>
       </c>
     </row>
@@ -2602,11 +2602,11 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>58651</v>
+        <v>62368</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -2627,11 +2627,11 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>62368</v>
+        <v>58651</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>turtle  squares</t>
         </is>
       </c>
     </row>
@@ -3602,11 +3602,11 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>19208</v>
+        <v>63593</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>red hot  applesauce</t>
+          <t>more  more    apple pear jigglers</t>
         </is>
       </c>
     </row>
@@ -3627,11 +3627,11 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>63593</v>
+        <v>19208</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>more  more    apple pear jigglers</t>
+          <t>red hot  applesauce</t>
         </is>
       </c>
     </row>
@@ -4727,11 +4727,11 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>39363</v>
+        <v>83062</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>spicy  banana bread</t>
         </is>
       </c>
     </row>
@@ -4752,11 +4752,11 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>83062</v>
+        <v>39363</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>spicy  banana bread</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -4927,11 +4927,11 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>107699</v>
+        <v>39363</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -4952,11 +4952,11 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>39363</v>
+        <v>107699</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -5577,11 +5577,11 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>47366</v>
+        <v>38276</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>forgotten  minestrone</t>
+          <t>now and later  vegetarian empanadas</t>
         </is>
       </c>
     </row>
@@ -5777,11 +5777,11 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>35964</v>
+        <v>62368</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -5802,11 +5802,11 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>24701</v>
+        <v>35964</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>rich  hot fudge cake</t>
         </is>
       </c>
     </row>
@@ -5827,11 +5827,11 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>112959</v>
+        <v>24701</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>cream  of spinach soup  vegan</t>
         </is>
       </c>
     </row>
@@ -5927,11 +5927,11 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>90921</v>
+        <v>39363</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>i stole the idea from mirj  sesame noodles</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -5952,11 +5952,11 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>24701</v>
+        <v>62368</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -6877,11 +6877,11 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>32271</v>
+        <v>83025</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>one pot  brownies</t>
+          <t>jeanne s style  birthday cake</t>
         </is>
       </c>
     </row>
@@ -6902,11 +6902,11 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>58651</v>
+        <v>35964</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>rich  hot fudge cake</t>
         </is>
       </c>
     </row>
@@ -6927,11 +6927,11 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>83025</v>
+        <v>32271</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>jeanne s style  birthday cake</t>
+          <t>one pot  brownies</t>
         </is>
       </c>
     </row>
@@ -6952,11 +6952,11 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>35964</v>
+        <v>58651</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>turtle  squares</t>
         </is>
       </c>
     </row>
@@ -7077,11 +7077,11 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>71635</v>
+        <v>52804</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -7177,11 +7177,11 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>71635</v>
+        <v>52804</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -7202,11 +7202,11 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>52804</v>
+        <v>71635</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>no bake  cookie crumble cheesecake</t>
         </is>
       </c>
     </row>
@@ -7752,11 +7752,11 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>39363</v>
+        <v>62368</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -7777,11 +7777,11 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>62368</v>
+        <v>39363</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -8027,11 +8027,11 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>71635</v>
+        <v>62368</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -8052,11 +8052,11 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>49262</v>
+        <v>71635</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>easiest ever  hollandaise sauce</t>
+          <t>no bake  cookie crumble cheesecake</t>
         </is>
       </c>
     </row>
@@ -8077,11 +8077,11 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>62368</v>
+        <v>49262</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>easiest ever  hollandaise sauce</t>
         </is>
       </c>
     </row>
@@ -8952,11 +8952,11 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>42570</v>
+        <v>41756</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>souper  easy sweet   sour meatballs</t>
         </is>
       </c>
     </row>
@@ -10027,11 +10027,11 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>59952</v>
+        <v>112140</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>global gourmet  taco casserole</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -10277,11 +10277,11 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>99024</v>
+        <v>93249</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>smoked  salmon  cracker spread</t>
+          <t>grilled  ranch bread</t>
         </is>
       </c>
     </row>
@@ -10302,11 +10302,11 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>107699</v>
+        <v>58224</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -10327,11 +10327,11 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>93249</v>
+        <v>99024</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>grilled  ranch bread</t>
+          <t>smoked  salmon  cracker spread</t>
         </is>
       </c>
     </row>
@@ -10377,11 +10377,11 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>62368</v>
+        <v>54100</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>grilled  venison burgers</t>
         </is>
       </c>
     </row>
@@ -10402,11 +10402,11 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>71635</v>
+        <v>33606</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>italian sandwich  pasta salad</t>
         </is>
       </c>
     </row>
@@ -10427,11 +10427,11 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>54100</v>
+        <v>62368</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>grilled  venison burgers</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -10452,11 +10452,11 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>99024</v>
+        <v>109439</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>smoked  salmon  cracker spread</t>
+          <t>berry  good sandwich spread</t>
         </is>
       </c>
     </row>
@@ -10652,11 +10652,11 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>87098</v>
+        <v>44045</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>homemade  vegetable soup from a can</t>
+          <t>mennonite  corn fritters</t>
         </is>
       </c>
     </row>
@@ -10677,11 +10677,11 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>44045</v>
+        <v>87098</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>mennonite  corn fritters</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -10702,11 +10702,11 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>39959</v>
+        <v>112140</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -11377,11 +11377,11 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>83133</v>
+        <v>87098</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -11402,11 +11402,11 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>87098</v>
+        <v>83133</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>homemade  vegetable soup from a can</t>
+          <t>stove top  bbq  beef or pork ribs</t>
         </is>
       </c>
     </row>
@@ -11452,11 +11452,11 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>39959</v>
+        <v>112140</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -11502,11 +11502,11 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>100870</v>
+        <v>25775</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>leftovers  spaghetti sauce</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -11527,11 +11527,11 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>35173</v>
+        <v>100870</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>italian  gut busters</t>
+          <t>leftovers  spaghetti sauce</t>
         </is>
       </c>
     </row>
@@ -11552,11 +11552,11 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>107699</v>
+        <v>35173</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>italian  gut busters</t>
         </is>
       </c>
     </row>
@@ -11577,11 +11577,11 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>35653</v>
+        <v>107699</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>make it your way  shortcakes</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -11777,11 +11777,11 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>25274</v>
+        <v>23933</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>chinese  candy</t>
         </is>
       </c>
     </row>
@@ -12527,11 +12527,11 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>25274</v>
+        <v>23933</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>chinese  candy</t>
         </is>
       </c>
     </row>
@@ -12877,11 +12877,11 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>58224</v>
+        <v>112140</v>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -12952,11 +12952,11 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>33606</v>
+        <v>58224</v>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -13427,11 +13427,11 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>52804</v>
+        <v>74805</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>never weep  whipped cream</t>
         </is>
       </c>
     </row>
@@ -13452,11 +13452,11 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>74805</v>
+        <v>52804</v>
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>never weep  whipped cream</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -13602,11 +13602,11 @@
         </is>
       </c>
       <c r="D527" t="n">
-        <v>22123</v>
+        <v>63593</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>i don t feel like cooking tonight  casserole</t>
+          <t>more  more    apple pear jigglers</t>
         </is>
       </c>
     </row>
@@ -13627,11 +13627,11 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>58224</v>
+        <v>22123</v>
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>i don t feel like cooking tonight  casserole</t>
         </is>
       </c>
     </row>
@@ -13652,11 +13652,11 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>39959</v>
+        <v>112140</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -13677,11 +13677,11 @@
         </is>
       </c>
       <c r="D530" t="n">
-        <v>63593</v>
+        <v>39959</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>more  more    apple pear jigglers</t>
+          <t>calm your nerves  tonic</t>
         </is>
       </c>
     </row>
@@ -13702,11 +13702,11 @@
         </is>
       </c>
       <c r="D531" t="n">
-        <v>33606</v>
+        <v>58224</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -13752,11 +13752,11 @@
         </is>
       </c>
       <c r="D533" t="n">
-        <v>35964</v>
+        <v>25775</v>
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -13777,11 +13777,11 @@
         </is>
       </c>
       <c r="D534" t="n">
-        <v>39959</v>
+        <v>35964</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>rich  hot fudge cake</t>
         </is>
       </c>
     </row>
@@ -13802,11 +13802,11 @@
         </is>
       </c>
       <c r="D535" t="n">
-        <v>76808</v>
+        <v>39959</v>
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>calm your nerves  tonic</t>
         </is>
       </c>
     </row>
@@ -13827,11 +13827,11 @@
         </is>
       </c>
       <c r="D536" t="n">
-        <v>32169</v>
+        <v>76808</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>cream  of spinach soup</t>
         </is>
       </c>
     </row>
@@ -14502,11 +14502,11 @@
         </is>
       </c>
       <c r="D563" t="n">
-        <v>39363</v>
+        <v>75452</v>
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>beat this  banana bread</t>
         </is>
       </c>
     </row>
@@ -14527,11 +14527,11 @@
         </is>
       </c>
       <c r="D564" t="n">
-        <v>75452</v>
+        <v>83062</v>
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>beat this  banana bread</t>
+          <t>spicy  banana bread</t>
         </is>
       </c>
     </row>
@@ -14552,11 +14552,11 @@
         </is>
       </c>
       <c r="D565" t="n">
-        <v>95926</v>
+        <v>39363</v>
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -14577,11 +14577,11 @@
         </is>
       </c>
       <c r="D566" t="n">
-        <v>83062</v>
+        <v>95926</v>
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>spicy  banana bread</t>
+          <t>say what   banana sandwich</t>
         </is>
       </c>
     </row>
@@ -17927,11 +17927,11 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>44123</v>
+        <v>59952</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t>george s at the cove  black bean soup</t>
+          <t>global gourmet  taco casserole</t>
         </is>
       </c>
     </row>
@@ -17952,11 +17952,11 @@
         </is>
       </c>
       <c r="D701" t="n">
-        <v>59952</v>
+        <v>44123</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
-          <t>global gourmet  taco casserole</t>
+          <t>george s at the cove  black bean soup</t>
         </is>
       </c>
     </row>
@@ -20127,11 +20127,11 @@
         </is>
       </c>
       <c r="D788" t="n">
-        <v>8559</v>
+        <v>38276</v>
       </c>
       <c r="E788" t="inlineStr">
         <is>
-          <t>chinese  chop suey</t>
+          <t>now and later  vegetarian empanadas</t>
         </is>
       </c>
     </row>
@@ -20177,11 +20177,11 @@
         </is>
       </c>
       <c r="D790" t="n">
-        <v>64045</v>
+        <v>67888</v>
       </c>
       <c r="E790" t="inlineStr">
         <is>
-          <t>some like it hot</t>
+          <t>backyard style  barbecued ribs</t>
         </is>
       </c>
     </row>
@@ -20202,11 +20202,11 @@
         </is>
       </c>
       <c r="D791" t="n">
-        <v>67888</v>
+        <v>64045</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
-          <t>backyard style  barbecued ribs</t>
+          <t>some like it hot</t>
         </is>
       </c>
     </row>
@@ -20527,11 +20527,11 @@
         </is>
       </c>
       <c r="D804" t="n">
-        <v>35653</v>
+        <v>63793</v>
       </c>
       <c r="E804" t="inlineStr">
         <is>
-          <t>make it your way  shortcakes</t>
+          <t>tide me over   indian chaat  simple veggie salad</t>
         </is>
       </c>
     </row>
@@ -20552,11 +20552,11 @@
         </is>
       </c>
       <c r="D805" t="n">
-        <v>63793</v>
+        <v>35653</v>
       </c>
       <c r="E805" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>make it your way  shortcakes</t>
         </is>
       </c>
     </row>
@@ -20577,11 +20577,11 @@
         </is>
       </c>
       <c r="D806" t="n">
-        <v>84797</v>
+        <v>108804</v>
       </c>
       <c r="E806" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>put down your fork   tuna and bean salad</t>
         </is>
       </c>
     </row>
@@ -20702,11 +20702,11 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>54100</v>
+        <v>90921</v>
       </c>
       <c r="E811" t="inlineStr">
         <is>
-          <t>grilled  venison burgers</t>
+          <t>i stole the idea from mirj  sesame noodles</t>
         </is>
       </c>
     </row>
@@ -21252,11 +21252,11 @@
         </is>
       </c>
       <c r="D833" t="n">
-        <v>58224</v>
+        <v>42570</v>
       </c>
       <c r="E833" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>pick me up  party chicken kabobs</t>
         </is>
       </c>
     </row>
@@ -21277,11 +21277,11 @@
         </is>
       </c>
       <c r="D834" t="n">
-        <v>42570</v>
+        <v>58224</v>
       </c>
       <c r="E834" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -23952,11 +23952,11 @@
         </is>
       </c>
       <c r="D941" t="n">
-        <v>100870</v>
+        <v>25775</v>
       </c>
       <c r="E941" t="inlineStr">
         <is>
-          <t>leftovers  spaghetti sauce</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -24902,11 +24902,11 @@
         </is>
       </c>
       <c r="D979" t="n">
-        <v>95926</v>
+        <v>63793</v>
       </c>
       <c r="E979" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>tide me over   indian chaat  simple veggie salad</t>
         </is>
       </c>
     </row>
@@ -24927,11 +24927,11 @@
         </is>
       </c>
       <c r="D980" t="n">
-        <v>63793</v>
+        <v>95926</v>
       </c>
       <c r="E980" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>say what   banana sandwich</t>
         </is>
       </c>
     </row>
@@ -24977,11 +24977,11 @@
         </is>
       </c>
       <c r="D982" t="n">
-        <v>35173</v>
+        <v>63793</v>
       </c>
       <c r="E982" t="inlineStr">
         <is>
-          <t>italian  gut busters</t>
+          <t>tide me over   indian chaat  simple veggie salad</t>
         </is>
       </c>
     </row>
@@ -25002,11 +25002,11 @@
         </is>
       </c>
       <c r="D983" t="n">
-        <v>39959</v>
+        <v>87098</v>
       </c>
       <c r="E983" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -25027,11 +25027,11 @@
         </is>
       </c>
       <c r="D984" t="n">
-        <v>95926</v>
+        <v>35173</v>
       </c>
       <c r="E984" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>italian  gut busters</t>
         </is>
       </c>
     </row>
@@ -25052,11 +25052,11 @@
         </is>
       </c>
       <c r="D985" t="n">
-        <v>87098</v>
+        <v>39959</v>
       </c>
       <c r="E985" t="inlineStr">
         <is>
-          <t>homemade  vegetable soup from a can</t>
+          <t>calm your nerves  tonic</t>
         </is>
       </c>
     </row>
@@ -25077,11 +25077,11 @@
         </is>
       </c>
       <c r="D986" t="n">
-        <v>63793</v>
+        <v>95926</v>
       </c>
       <c r="E986" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>say what   banana sandwich</t>
         </is>
       </c>
     </row>
@@ -25302,11 +25302,11 @@
         </is>
       </c>
       <c r="D995" t="n">
-        <v>25274</v>
+        <v>30131</v>
       </c>
       <c r="E995" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>momma s special  marinade</t>
         </is>
       </c>
     </row>
@@ -25327,11 +25327,11 @@
         </is>
       </c>
       <c r="D996" t="n">
-        <v>30131</v>
+        <v>93249</v>
       </c>
       <c r="E996" t="inlineStr">
         <is>
-          <t>momma s special  marinade</t>
+          <t>grilled  ranch bread</t>
         </is>
       </c>
     </row>
@@ -26002,11 +26002,11 @@
         </is>
       </c>
       <c r="D1023" t="n">
-        <v>111875</v>
+        <v>112959</v>
       </c>
       <c r="E1023" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>sour cream  avocado dip  vegan</t>
         </is>
       </c>
     </row>
@@ -26027,11 +26027,11 @@
         </is>
       </c>
       <c r="D1024" t="n">
-        <v>112959</v>
+        <v>111875</v>
       </c>
       <c r="E1024" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>the elvis  smoothie</t>
         </is>
       </c>
     </row>
@@ -26052,11 +26052,11 @@
         </is>
       </c>
       <c r="D1025" t="n">
-        <v>25274</v>
+        <v>23850</v>
       </c>
       <c r="E1025" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -26177,11 +26177,11 @@
         </is>
       </c>
       <c r="D1030" t="n">
-        <v>25274</v>
+        <v>25775</v>
       </c>
       <c r="E1030" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -26202,11 +26202,11 @@
         </is>
       </c>
       <c r="D1031" t="n">
-        <v>25775</v>
+        <v>24701</v>
       </c>
       <c r="E1031" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>cream  of spinach soup  vegan</t>
         </is>
       </c>
     </row>
@@ -26877,11 +26877,11 @@
         </is>
       </c>
       <c r="D1058" t="n">
-        <v>64302</v>
+        <v>83133</v>
       </c>
       <c r="E1058" t="inlineStr">
         <is>
-          <t>red  macaroni salad</t>
+          <t>stove top  bbq  beef or pork ribs</t>
         </is>
       </c>
     </row>
@@ -26902,11 +26902,11 @@
         </is>
       </c>
       <c r="D1059" t="n">
-        <v>83133</v>
+        <v>64302</v>
       </c>
       <c r="E1059" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>red  macaroni salad</t>
         </is>
       </c>
     </row>
@@ -27302,11 +27302,11 @@
         </is>
       </c>
       <c r="D1075" t="n">
-        <v>60219</v>
+        <v>87098</v>
       </c>
       <c r="E1075" t="inlineStr">
         <is>
-          <t>mexican pasta</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -27327,11 +27327,11 @@
         </is>
       </c>
       <c r="D1076" t="n">
-        <v>32169</v>
+        <v>25775</v>
       </c>
       <c r="E1076" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -28302,11 +28302,11 @@
         </is>
       </c>
       <c r="D1115" t="n">
-        <v>32169</v>
+        <v>59952</v>
       </c>
       <c r="E1115" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>global gourmet  taco casserole</t>
         </is>
       </c>
     </row>
@@ -28327,11 +28327,11 @@
         </is>
       </c>
       <c r="D1116" t="n">
-        <v>59534</v>
+        <v>32169</v>
       </c>
       <c r="E1116" t="inlineStr">
         <is>
-          <t>twisted american chop suey</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -28377,11 +28377,11 @@
         </is>
       </c>
       <c r="D1118" t="n">
-        <v>25775</v>
+        <v>59952</v>
       </c>
       <c r="E1118" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>global gourmet  taco casserole</t>
         </is>
       </c>
     </row>
@@ -28402,11 +28402,11 @@
         </is>
       </c>
       <c r="D1119" t="n">
-        <v>32169</v>
+        <v>25775</v>
       </c>
       <c r="E1119" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -28427,11 +28427,11 @@
         </is>
       </c>
       <c r="D1120" t="n">
-        <v>59952</v>
+        <v>32169</v>
       </c>
       <c r="E1120" t="inlineStr">
         <is>
-          <t>global gourmet  taco casserole</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -28577,11 +28577,11 @@
         </is>
       </c>
       <c r="D1126" t="n">
-        <v>32169</v>
+        <v>59952</v>
       </c>
       <c r="E1126" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>global gourmet  taco casserole</t>
         </is>
       </c>
     </row>
@@ -29352,11 +29352,11 @@
         </is>
       </c>
       <c r="D1157" t="n">
-        <v>59534</v>
+        <v>23850</v>
       </c>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>twisted american chop suey</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -29377,11 +29377,11 @@
         </is>
       </c>
       <c r="D1158" t="n">
-        <v>23850</v>
+        <v>137739</v>
       </c>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>arriba   baked winter squash mexican style</t>
         </is>
       </c>
     </row>
@@ -29402,11 +29402,11 @@
         </is>
       </c>
       <c r="D1159" t="n">
-        <v>137739</v>
+        <v>59534</v>
       </c>
       <c r="E1159" t="inlineStr">
         <is>
-          <t>arriba   baked winter squash mexican style</t>
+          <t>twisted american chop suey</t>
         </is>
       </c>
     </row>
@@ -29527,11 +29527,11 @@
         </is>
       </c>
       <c r="D1164" t="n">
-        <v>49262</v>
+        <v>137739</v>
       </c>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>easiest ever  hollandaise sauce</t>
+          <t>arriba   baked winter squash mexican style</t>
         </is>
       </c>
     </row>
@@ -29552,11 +29552,11 @@
         </is>
       </c>
       <c r="D1165" t="n">
-        <v>23850</v>
+        <v>87098</v>
       </c>
       <c r="E1165" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -29577,11 +29577,11 @@
         </is>
       </c>
       <c r="D1166" t="n">
-        <v>44123</v>
+        <v>23850</v>
       </c>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>george s at the cove  black bean soup</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -29627,11 +29627,11 @@
         </is>
       </c>
       <c r="D1168" t="n">
-        <v>83873</v>
+        <v>137739</v>
       </c>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>crispy crunchy  chicken</t>
+          <t>arriba   baked winter squash mexican style</t>
         </is>
       </c>
     </row>
@@ -29652,11 +29652,11 @@
         </is>
       </c>
       <c r="D1169" t="n">
-        <v>137739</v>
+        <v>41756</v>
       </c>
       <c r="E1169" t="inlineStr">
         <is>
-          <t>arriba   baked winter squash mexican style</t>
+          <t>souper  easy sweet   sour meatballs</t>
         </is>
       </c>
     </row>
@@ -29677,11 +29677,11 @@
         </is>
       </c>
       <c r="D1170" t="n">
-        <v>41756</v>
+        <v>83873</v>
       </c>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>souper  easy sweet   sour meatballs</t>
+          <t>crispy crunchy  chicken</t>
         </is>
       </c>
     </row>
@@ -30477,11 +30477,11 @@
         </is>
       </c>
       <c r="D1202" t="n">
-        <v>107229</v>
+        <v>83873</v>
       </c>
       <c r="E1202" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>crispy crunchy  chicken</t>
         </is>
       </c>
     </row>
@@ -30502,11 +30502,11 @@
         </is>
       </c>
       <c r="D1203" t="n">
-        <v>83873</v>
+        <v>107229</v>
       </c>
       <c r="E1203" t="inlineStr">
         <is>
-          <t>crispy crunchy  chicken</t>
+          <t>open sesame  noodles</t>
         </is>
       </c>
     </row>
@@ -30527,11 +30527,11 @@
         </is>
       </c>
       <c r="D1204" t="n">
-        <v>54272</v>
+        <v>63986</v>
       </c>
       <c r="E1204" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>chicken lickin  good  pork chops</t>
         </is>
       </c>
     </row>
@@ -30552,11 +30552,11 @@
         </is>
       </c>
       <c r="D1205" t="n">
-        <v>63986</v>
+        <v>98930</v>
       </c>
       <c r="E1205" t="inlineStr">
         <is>
-          <t>chicken lickin  good  pork chops</t>
+          <t>steamed  chicken cutlets in packages</t>
         </is>
       </c>
     </row>
@@ -30577,11 +30577,11 @@
         </is>
       </c>
       <c r="D1206" t="n">
-        <v>98930</v>
+        <v>54272</v>
       </c>
       <c r="E1206" t="inlineStr">
         <is>
-          <t>steamed  chicken cutlets in packages</t>
+          <t>fool the meat eaters  chili</t>
         </is>
       </c>
     </row>
@@ -30602,11 +30602,11 @@
         </is>
       </c>
       <c r="D1207" t="n">
-        <v>42570</v>
+        <v>83873</v>
       </c>
       <c r="E1207" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>crispy crunchy  chicken</t>
         </is>
       </c>
     </row>
@@ -30627,11 +30627,11 @@
         </is>
       </c>
       <c r="D1208" t="n">
-        <v>83873</v>
+        <v>42570</v>
       </c>
       <c r="E1208" t="inlineStr">
         <is>
-          <t>crispy crunchy  chicken</t>
+          <t>pick me up  party chicken kabobs</t>
         </is>
       </c>
     </row>
@@ -30702,11 +30702,11 @@
         </is>
       </c>
       <c r="D1211" t="n">
-        <v>44123</v>
+        <v>32169</v>
       </c>
       <c r="E1211" t="inlineStr">
         <is>
-          <t>george s at the cove  black bean soup</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -31377,11 +31377,11 @@
         </is>
       </c>
       <c r="D1238" t="n">
-        <v>53402</v>
+        <v>32169</v>
       </c>
       <c r="E1238" t="inlineStr">
         <is>
-          <t>killer  lasagna</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -31402,11 +31402,11 @@
         </is>
       </c>
       <c r="D1239" t="n">
-        <v>32169</v>
+        <v>53402</v>
       </c>
       <c r="E1239" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>killer  lasagna</t>
         </is>
       </c>
     </row>
@@ -31427,11 +31427,11 @@
         </is>
       </c>
       <c r="D1240" t="n">
-        <v>47366</v>
+        <v>94710</v>
       </c>
       <c r="E1240" t="inlineStr">
         <is>
-          <t>forgotten  minestrone</t>
+          <t>italian  fries</t>
         </is>
       </c>
     </row>
@@ -31452,11 +31452,11 @@
         </is>
       </c>
       <c r="D1241" t="n">
-        <v>94710</v>
+        <v>47366</v>
       </c>
       <c r="E1241" t="inlineStr">
         <is>
-          <t>italian  fries</t>
+          <t>forgotten  minestrone</t>
         </is>
       </c>
     </row>
@@ -33902,11 +33902,11 @@
         </is>
       </c>
       <c r="D1339" t="n">
-        <v>95926</v>
+        <v>30300</v>
       </c>
       <c r="E1339" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>munch without guilt  tomatoes</t>
         </is>
       </c>
     </row>
@@ -33952,11 +33952,11 @@
         </is>
       </c>
       <c r="D1341" t="n">
-        <v>30300</v>
+        <v>95926</v>
       </c>
       <c r="E1341" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>say what   banana sandwich</t>
         </is>
       </c>
     </row>
@@ -33977,11 +33977,11 @@
         </is>
       </c>
       <c r="D1342" t="n">
-        <v>83062</v>
+        <v>30300</v>
       </c>
       <c r="E1342" t="inlineStr">
         <is>
-          <t>spicy  banana bread</t>
+          <t>munch without guilt  tomatoes</t>
         </is>
       </c>
     </row>
@@ -34002,11 +34002,11 @@
         </is>
       </c>
       <c r="D1343" t="n">
-        <v>30300</v>
+        <v>83062</v>
       </c>
       <c r="E1343" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>spicy  banana bread</t>
         </is>
       </c>
     </row>
@@ -34077,11 +34077,11 @@
         </is>
       </c>
       <c r="D1346" t="n">
-        <v>26995</v>
+        <v>75452</v>
       </c>
       <c r="E1346" t="inlineStr">
         <is>
-          <t>keep it going  german friendship cake</t>
+          <t>beat this  banana bread</t>
         </is>
       </c>
     </row>
@@ -34102,11 +34102,11 @@
         </is>
       </c>
       <c r="D1347" t="n">
-        <v>107699</v>
+        <v>30300</v>
       </c>
       <c r="E1347" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>munch without guilt  tomatoes</t>
         </is>
       </c>
     </row>
@@ -34127,11 +34127,11 @@
         </is>
       </c>
       <c r="D1348" t="n">
-        <v>30300</v>
+        <v>107699</v>
       </c>
       <c r="E1348" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -34752,11 +34752,11 @@
         </is>
       </c>
       <c r="D1373" t="n">
-        <v>112140</v>
+        <v>59534</v>
       </c>
       <c r="E1373" t="inlineStr">
         <is>
-          <t>all in the kitchen  chili</t>
+          <t>twisted american chop suey</t>
         </is>
       </c>
     </row>
@@ -34777,11 +34777,11 @@
         </is>
       </c>
       <c r="D1374" t="n">
-        <v>59534</v>
+        <v>41756</v>
       </c>
       <c r="E1374" t="inlineStr">
         <is>
-          <t>twisted american chop suey</t>
+          <t>souper  easy sweet   sour meatballs</t>
         </is>
       </c>
     </row>
@@ -34802,11 +34802,11 @@
         </is>
       </c>
       <c r="D1375" t="n">
-        <v>41756</v>
+        <v>112140</v>
       </c>
       <c r="E1375" t="inlineStr">
         <is>
-          <t>souper  easy sweet   sour meatballs</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -35077,11 +35077,11 @@
         </is>
       </c>
       <c r="D1386" t="n">
-        <v>95926</v>
+        <v>67664</v>
       </c>
       <c r="E1386" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>healthy for them  yogurt popsicles</t>
         </is>
       </c>
     </row>
@@ -36227,11 +36227,11 @@
         </is>
       </c>
       <c r="D1432" t="n">
-        <v>42570</v>
+        <v>112959</v>
       </c>
       <c r="E1432" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>sour cream  avocado dip  vegan</t>
         </is>
       </c>
     </row>
@@ -36252,11 +36252,11 @@
         </is>
       </c>
       <c r="D1433" t="n">
-        <v>112959</v>
+        <v>24701</v>
       </c>
       <c r="E1433" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>cream  of spinach soup  vegan</t>
         </is>
       </c>
     </row>
@@ -36277,11 +36277,11 @@
         </is>
       </c>
       <c r="D1434" t="n">
-        <v>54100</v>
+        <v>31490</v>
       </c>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>grilled  venison burgers</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -36302,11 +36302,11 @@
         </is>
       </c>
       <c r="D1435" t="n">
-        <v>54272</v>
+        <v>23850</v>
       </c>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -36327,11 +36327,11 @@
         </is>
       </c>
       <c r="D1436" t="n">
-        <v>58224</v>
+        <v>42570</v>
       </c>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>pick me up  party chicken kabobs</t>
         </is>
       </c>
     </row>
@@ -37877,11 +37877,11 @@
         </is>
       </c>
       <c r="D1498" t="n">
-        <v>38798</v>
+        <v>52804</v>
       </c>
       <c r="E1498" t="inlineStr">
         <is>
-          <t>i can t believe it s spinach</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -37902,11 +37902,11 @@
         </is>
       </c>
       <c r="D1499" t="n">
-        <v>52804</v>
+        <v>26995</v>
       </c>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>keep it going  german friendship cake</t>
         </is>
       </c>
     </row>
@@ -37952,11 +37952,11 @@
         </is>
       </c>
       <c r="D1501" t="n">
-        <v>26995</v>
+        <v>27087</v>
       </c>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>keep it going  german friendship cake</t>
+          <t>get the sensation  brownies</t>
         </is>
       </c>
     </row>
@@ -38177,11 +38177,11 @@
         </is>
       </c>
       <c r="D1510" t="n">
-        <v>93959</v>
+        <v>26835</v>
       </c>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>i yam what i yam two  muffins</t>
+          <t>one bowl  perfect pound cake</t>
         </is>
       </c>
     </row>
@@ -38202,11 +38202,11 @@
         </is>
       </c>
       <c r="D1511" t="n">
-        <v>26835</v>
+        <v>75452</v>
       </c>
       <c r="E1511" t="inlineStr">
         <is>
-          <t>one bowl  perfect pound cake</t>
+          <t>beat this  banana bread</t>
         </is>
       </c>
     </row>
@@ -38502,11 +38502,11 @@
         </is>
       </c>
       <c r="D1523" t="n">
-        <v>26835</v>
+        <v>30300</v>
       </c>
       <c r="E1523" t="inlineStr">
         <is>
-          <t>one bowl  perfect pound cake</t>
+          <t>munch without guilt  tomatoes</t>
         </is>
       </c>
     </row>
@@ -38527,11 +38527,11 @@
         </is>
       </c>
       <c r="D1524" t="n">
-        <v>30300</v>
+        <v>26835</v>
       </c>
       <c r="E1524" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>one bowl  perfect pound cake</t>
         </is>
       </c>
     </row>
@@ -38552,11 +38552,11 @@
         </is>
       </c>
       <c r="D1525" t="n">
-        <v>71635</v>
+        <v>25775</v>
       </c>
       <c r="E1525" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -38577,11 +38577,11 @@
         </is>
       </c>
       <c r="D1526" t="n">
-        <v>35653</v>
+        <v>71635</v>
       </c>
       <c r="E1526" t="inlineStr">
         <is>
-          <t>make it your way  shortcakes</t>
+          <t>no bake  cookie crumble cheesecake</t>
         </is>
       </c>
     </row>
@@ -38627,11 +38627,11 @@
         </is>
       </c>
       <c r="D1528" t="n">
-        <v>38798</v>
+        <v>25775</v>
       </c>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>i can t believe it s spinach</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -38677,11 +38677,11 @@
         </is>
       </c>
       <c r="D1530" t="n">
-        <v>25775</v>
+        <v>26995</v>
       </c>
       <c r="E1530" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>keep it going  german friendship cake</t>
         </is>
       </c>
     </row>
@@ -38702,11 +38702,11 @@
         </is>
       </c>
       <c r="D1531" t="n">
-        <v>26995</v>
+        <v>27087</v>
       </c>
       <c r="E1531" t="inlineStr">
         <is>
-          <t>keep it going  german friendship cake</t>
+          <t>get the sensation  brownies</t>
         </is>
       </c>
     </row>
@@ -39502,11 +39502,11 @@
         </is>
       </c>
       <c r="D1563" t="n">
-        <v>25274</v>
+        <v>24701</v>
       </c>
       <c r="E1563" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>cream  of spinach soup  vegan</t>
         </is>
       </c>
     </row>
@@ -39527,11 +39527,11 @@
         </is>
       </c>
       <c r="D1564" t="n">
-        <v>54272</v>
+        <v>25274</v>
       </c>
       <c r="E1564" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>aww  marinated olives</t>
         </is>
       </c>
     </row>
@@ -39552,11 +39552,11 @@
         </is>
       </c>
       <c r="D1565" t="n">
-        <v>81185</v>
+        <v>54272</v>
       </c>
       <c r="E1565" t="inlineStr">
         <is>
-          <t>mock a mole   low fat guacamole</t>
+          <t>fool the meat eaters  chili</t>
         </is>
       </c>
     </row>
@@ -39577,11 +39577,11 @@
         </is>
       </c>
       <c r="D1566" t="n">
-        <v>24701</v>
+        <v>81185</v>
       </c>
       <c r="E1566" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>mock a mole   low fat guacamole</t>
         </is>
       </c>
     </row>
@@ -39652,11 +39652,11 @@
         </is>
       </c>
       <c r="D1569" t="n">
-        <v>54272</v>
+        <v>23850</v>
       </c>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -39677,11 +39677,11 @@
         </is>
       </c>
       <c r="D1570" t="n">
-        <v>23850</v>
+        <v>54272</v>
       </c>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>fool the meat eaters  chili</t>
         </is>
       </c>
     </row>
@@ -39702,11 +39702,11 @@
         </is>
       </c>
       <c r="D1571" t="n">
-        <v>84797</v>
+        <v>25775</v>
       </c>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -39777,11 +39777,11 @@
         </is>
       </c>
       <c r="D1574" t="n">
-        <v>43164</v>
+        <v>23850</v>
       </c>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>mr  grant you took half veal prince orloff</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -39802,11 +39802,11 @@
         </is>
       </c>
       <c r="D1575" t="n">
-        <v>42522</v>
+        <v>43164</v>
       </c>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>mr  grant you took half veal prince orloff</t>
         </is>
       </c>
     </row>
@@ -39827,11 +39827,11 @@
         </is>
       </c>
       <c r="D1576" t="n">
-        <v>23850</v>
+        <v>42522</v>
       </c>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>the man s  taco dip</t>
         </is>
       </c>
     </row>
@@ -40702,11 +40702,11 @@
         </is>
       </c>
       <c r="D1611" t="n">
-        <v>42570</v>
+        <v>107699</v>
       </c>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -40727,11 +40727,11 @@
         </is>
       </c>
       <c r="D1612" t="n">
-        <v>35964</v>
+        <v>107699</v>
       </c>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -40752,11 +40752,11 @@
         </is>
       </c>
       <c r="D1613" t="n">
-        <v>107699</v>
+        <v>35964</v>
       </c>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>rich  hot fudge cake</t>
         </is>
       </c>
     </row>
@@ -40877,11 +40877,11 @@
         </is>
       </c>
       <c r="D1618" t="n">
-        <v>62368</v>
+        <v>107699</v>
       </c>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -40902,11 +40902,11 @@
         </is>
       </c>
       <c r="D1619" t="n">
-        <v>63793</v>
+        <v>62368</v>
       </c>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -40927,11 +40927,11 @@
         </is>
       </c>
       <c r="D1620" t="n">
-        <v>22526</v>
+        <v>63793</v>
       </c>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>land of nod  cinnamon buns</t>
+          <t>tide me over   indian chaat  simple veggie salad</t>
         </is>
       </c>
     </row>
@@ -40952,11 +40952,11 @@
         </is>
       </c>
       <c r="D1621" t="n">
-        <v>107699</v>
+        <v>22526</v>
       </c>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>land of nod  cinnamon buns</t>
         </is>
       </c>
     </row>
@@ -41852,11 +41852,11 @@
         </is>
       </c>
       <c r="D1657" t="n">
-        <v>52804</v>
+        <v>107699</v>
       </c>
       <c r="E1657" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -41877,11 +41877,11 @@
         </is>
       </c>
       <c r="D1658" t="n">
-        <v>107699</v>
+        <v>52804</v>
       </c>
       <c r="E1658" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -42652,11 +42652,11 @@
         </is>
       </c>
       <c r="D1689" t="n">
-        <v>35964</v>
+        <v>62368</v>
       </c>
       <c r="E1689" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -42677,11 +42677,11 @@
         </is>
       </c>
       <c r="D1690" t="n">
-        <v>62368</v>
+        <v>38276</v>
       </c>
       <c r="E1690" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>now and later  vegetarian empanadas</t>
         </is>
       </c>
     </row>
@@ -42702,11 +42702,11 @@
         </is>
       </c>
       <c r="D1691" t="n">
-        <v>39363</v>
+        <v>35653</v>
       </c>
       <c r="E1691" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>make it your way  shortcakes</t>
         </is>
       </c>
     </row>
@@ -42977,11 +42977,11 @@
         </is>
       </c>
       <c r="D1702" t="n">
-        <v>71635</v>
+        <v>71457</v>
       </c>
       <c r="E1702" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>rise and shine  german fruit pancake</t>
         </is>
       </c>
     </row>
@@ -43002,11 +43002,11 @@
         </is>
       </c>
       <c r="D1703" t="n">
-        <v>62368</v>
+        <v>71635</v>
       </c>
       <c r="E1703" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>no bake  cookie crumble cheesecake</t>
         </is>
       </c>
     </row>
@@ -43027,11 +43027,11 @@
         </is>
       </c>
       <c r="D1704" t="n">
-        <v>71457</v>
+        <v>62368</v>
       </c>
       <c r="E1704" t="inlineStr">
         <is>
-          <t>rise and shine  german fruit pancake</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -43177,11 +43177,11 @@
         </is>
       </c>
       <c r="D1710" t="n">
-        <v>107699</v>
+        <v>71457</v>
       </c>
       <c r="E1710" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>rise and shine  german fruit pancake</t>
         </is>
       </c>
     </row>
@@ -43202,11 +43202,11 @@
         </is>
       </c>
       <c r="D1711" t="n">
-        <v>26995</v>
+        <v>107699</v>
       </c>
       <c r="E1711" t="inlineStr">
         <is>
-          <t>keep it going  german friendship cake</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -44002,11 +44002,11 @@
         </is>
       </c>
       <c r="D1743" t="n">
-        <v>25274</v>
+        <v>60219</v>
       </c>
       <c r="E1743" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>mexican pasta</t>
         </is>
       </c>
     </row>
@@ -44027,11 +44027,11 @@
         </is>
       </c>
       <c r="D1744" t="n">
-        <v>60219</v>
+        <v>25274</v>
       </c>
       <c r="E1744" t="inlineStr">
         <is>
-          <t>mexican pasta</t>
+          <t>aww  marinated olives</t>
         </is>
       </c>
     </row>
@@ -44052,11 +44052,11 @@
         </is>
       </c>
       <c r="D1745" t="n">
-        <v>54100</v>
+        <v>32169</v>
       </c>
       <c r="E1745" t="inlineStr">
         <is>
-          <t>grilled  venison burgers</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -44077,11 +44077,11 @@
         </is>
       </c>
       <c r="D1746" t="n">
-        <v>107229</v>
+        <v>54100</v>
       </c>
       <c r="E1746" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>grilled  venison burgers</t>
         </is>
       </c>
     </row>
@@ -44152,11 +44152,11 @@
         </is>
       </c>
       <c r="D1749" t="n">
-        <v>49262</v>
+        <v>32169</v>
       </c>
       <c r="E1749" t="inlineStr">
         <is>
-          <t>easiest ever  hollandaise sauce</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -44177,11 +44177,11 @@
         </is>
       </c>
       <c r="D1750" t="n">
-        <v>107229</v>
+        <v>49262</v>
       </c>
       <c r="E1750" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>easiest ever  hollandaise sauce</t>
         </is>
       </c>
     </row>
@@ -44202,11 +44202,11 @@
         </is>
       </c>
       <c r="D1751" t="n">
-        <v>32169</v>
+        <v>107229</v>
       </c>
       <c r="E1751" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>open sesame  noodles</t>
         </is>
       </c>
     </row>
@@ -44227,11 +44227,11 @@
         </is>
       </c>
       <c r="D1752" t="n">
-        <v>107229</v>
+        <v>32169</v>
       </c>
       <c r="E1752" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -44252,11 +44252,11 @@
         </is>
       </c>
       <c r="D1753" t="n">
-        <v>32169</v>
+        <v>107229</v>
       </c>
       <c r="E1753" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>open sesame  noodles</t>
         </is>
       </c>
     </row>
@@ -46377,11 +46377,11 @@
         </is>
       </c>
       <c r="D1838" t="n">
-        <v>27087</v>
+        <v>39947</v>
       </c>
       <c r="E1838" t="inlineStr">
         <is>
-          <t>get the sensation  brownies</t>
+          <t>sugared grapes</t>
         </is>
       </c>
     </row>
@@ -46402,11 +46402,11 @@
         </is>
       </c>
       <c r="D1839" t="n">
-        <v>39947</v>
+        <v>27087</v>
       </c>
       <c r="E1839" t="inlineStr">
         <is>
-          <t>sugared grapes</t>
+          <t>get the sensation  brownies</t>
         </is>
       </c>
     </row>
@@ -47377,11 +47377,11 @@
         </is>
       </c>
       <c r="D1878" t="n">
-        <v>103948</v>
+        <v>31490</v>
       </c>
       <c r="E1878" t="inlineStr">
         <is>
-          <t>smells like sunday  chicken fricassee with meatballs</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -47402,11 +47402,11 @@
         </is>
       </c>
       <c r="D1879" t="n">
-        <v>39363</v>
+        <v>103948</v>
       </c>
       <c r="E1879" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>smells like sunday  chicken fricassee with meatballs</t>
         </is>
       </c>
     </row>
@@ -47427,11 +47427,11 @@
         </is>
       </c>
       <c r="D1880" t="n">
-        <v>31490</v>
+        <v>25775</v>
       </c>
       <c r="E1880" t="inlineStr">
         <is>
-          <t>a bit different  breakfast pizza</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -47452,11 +47452,11 @@
         </is>
       </c>
       <c r="D1881" t="n">
-        <v>25775</v>
+        <v>39363</v>
       </c>
       <c r="E1881" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -47502,11 +47502,11 @@
         </is>
       </c>
       <c r="D1883" t="n">
-        <v>22526</v>
+        <v>31490</v>
       </c>
       <c r="E1883" t="inlineStr">
         <is>
-          <t>land of nod  cinnamon buns</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -47527,11 +47527,11 @@
         </is>
       </c>
       <c r="D1884" t="n">
-        <v>71457</v>
+        <v>22526</v>
       </c>
       <c r="E1884" t="inlineStr">
         <is>
-          <t>rise and shine  german fruit pancake</t>
+          <t>land of nod  cinnamon buns</t>
         </is>
       </c>
     </row>
@@ -47552,11 +47552,11 @@
         </is>
       </c>
       <c r="D1885" t="n">
-        <v>107229</v>
+        <v>71457</v>
       </c>
       <c r="E1885" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>rise and shine  german fruit pancake</t>
         </is>
       </c>
     </row>
@@ -47577,11 +47577,11 @@
         </is>
       </c>
       <c r="D1886" t="n">
-        <v>64045</v>
+        <v>25775</v>
       </c>
       <c r="E1886" t="inlineStr">
         <is>
-          <t>some like it hot</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -47702,11 +47702,11 @@
         </is>
       </c>
       <c r="D1891" t="n">
-        <v>107699</v>
+        <v>31490</v>
       </c>
       <c r="E1891" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -48527,11 +48527,11 @@
         </is>
       </c>
       <c r="D1924" t="n">
-        <v>27087</v>
+        <v>112959</v>
       </c>
       <c r="E1924" t="inlineStr">
         <is>
-          <t>get the sensation  brownies</t>
+          <t>sour cream  avocado dip  vegan</t>
         </is>
       </c>
     </row>
@@ -48552,11 +48552,11 @@
         </is>
       </c>
       <c r="D1925" t="n">
-        <v>112959</v>
+        <v>27087</v>
       </c>
       <c r="E1925" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>get the sensation  brownies</t>
         </is>
       </c>
     </row>
@@ -48652,11 +48652,11 @@
         </is>
       </c>
       <c r="D1929" t="n">
-        <v>54272</v>
+        <v>23850</v>
       </c>
       <c r="E1929" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -48677,11 +48677,11 @@
         </is>
       </c>
       <c r="D1930" t="n">
-        <v>42570</v>
+        <v>54272</v>
       </c>
       <c r="E1930" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>fool the meat eaters  chili</t>
         </is>
       </c>
     </row>
@@ -48702,11 +48702,11 @@
         </is>
       </c>
       <c r="D1931" t="n">
-        <v>8559</v>
+        <v>42570</v>
       </c>
       <c r="E1931" t="inlineStr">
         <is>
-          <t>chinese  chop suey</t>
+          <t>pick me up  party chicken kabobs</t>
         </is>
       </c>
     </row>
@@ -49777,11 +49777,11 @@
         </is>
       </c>
       <c r="D1974" t="n">
-        <v>33606</v>
+        <v>87098</v>
       </c>
       <c r="E1974" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -49802,11 +49802,11 @@
         </is>
       </c>
       <c r="D1975" t="n">
-        <v>32169</v>
+        <v>33606</v>
       </c>
       <c r="E1975" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>italian sandwich  pasta salad</t>
         </is>
       </c>
     </row>
@@ -49827,11 +49827,11 @@
         </is>
       </c>
       <c r="D1976" t="n">
-        <v>90921</v>
+        <v>32169</v>
       </c>
       <c r="E1976" t="inlineStr">
         <is>
-          <t>i stole the idea from mirj  sesame noodles</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
